--- a/test_data/input1.xlsx
+++ b/test_data/input1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dmitry\Projects\research-programmes-compare\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Dmitry\Projects\research-programmes-compare\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4A1025-BBDC-4267-98F7-C69F17DE367B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98A03C78-B3FE-4E0D-BD71-5DE337BA3F86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{51583AE7-DFE9-4D46-AEB7-650332279173}"/>
+    <workbookView xWindow="16170" yWindow="2993" windowWidth="9180" windowHeight="11422" xr2:uid="{51583AE7-DFE9-4D46-AEB7-650332279173}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -426,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB86BD0D-FBD9-4781-8C88-8273D0D8CDCB}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -514,25 +514,25 @@
         <v>190</v>
       </c>
     </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6">
+        <v>10</v>
+      </c>
+    </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D7">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8">
         <v>15</v>
       </c>
     </row>
